--- a/Mifos Automation Excels/Client/4353-ACTGRP-MEETING-WEEKLYonFRI-SUBMITJLGloan-SYNK-REPAYwithMEETING-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4353-ACTGRP-MEETING-WEEKLYonFRI-SUBMITJLGloan-SYNK-REPAYwithMEETING-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
